--- a/SourceCode/2024/Feb 2024/Anusha k/Task21/excel.xlsx
+++ b/SourceCode/2024/Feb 2024/Anusha k/Task21/excel.xlsx
@@ -37,13 +37,13 @@
     <x:t>vizag</x:t>
   </x:si>
   <x:si>
-    <x:t>77</x:t>
+    <x:t>79</x:t>
   </x:si>
   <x:si>
     <x:t>hyderabad</x:t>
   </x:si>
   <x:si>
-    <x:t>78</x:t>
+    <x:t>81</x:t>
   </x:si>
   <x:si>
     <x:t>srikakulam</x:t>
@@ -52,7 +52,7 @@
     <x:t>chennai</x:t>
   </x:si>
   <x:si>
-    <x:t>82</x:t>
+    <x:t>84</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -419,7 +419,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
